--- a/ContactCenter/trunk/kettle/MAXDAT/implementation/DMCS/data/configuration.xlsx
+++ b/ContactCenter/trunk/kettle/MAXDAT/implementation/DMCS/data/configuration.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\ContactCenter\trunk\kettle\MAXDAT\implementation\DMCS\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="11280" windowHeight="7545" tabRatio="762" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="11280" windowHeight="7548" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
@@ -29,7 +34,7 @@
     <author>Clay Rowland</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +68,7 @@
     <author>Clay Rowland</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +150,7 @@
     <author>Clay Rowland</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +208,7 @@
     <author>Clay Rowland</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -261,7 +266,7 @@
     <author>Clay Rowland</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +300,7 @@
     <author>Clay Rowland</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -343,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0">
+    <comment ref="E22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -373,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>PROJECT_NAME</t>
   </si>
@@ -583,6 +588,33 @@
   </si>
   <si>
     <t>Central</t>
+  </si>
+  <si>
+    <t>IVR</t>
+  </si>
+  <si>
+    <t>unit_of_work_category</t>
+  </si>
+  <si>
+    <t>INBOUND_CALL</t>
+  </si>
+  <si>
+    <t>wcDMCS_SPANISH_2000</t>
+  </si>
+  <si>
+    <t>mvDMCS_SPANISH_2000</t>
+  </si>
+  <si>
+    <t>wcDMCS_ENGLISH_1000</t>
+  </si>
+  <si>
+    <t>mvDMCS_ENGLISH_1000</t>
+  </si>
+  <si>
+    <t>INCLUDE_IN_REPORTS_FLAG</t>
+  </si>
+  <si>
+    <t>Inbound</t>
   </si>
 </sst>
 </file>
@@ -720,6 +752,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -767,7 +802,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -802,7 +837,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1014,28 +1049,29 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>42</v>
       </c>
@@ -1069,8 +1105,11 @@
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1104,8 +1143,11 @@
       <c r="K2" s="16">
         <v>401768</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1114,7 +1156,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1123,7 +1165,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1147,21 +1189,21 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>51</v>
       </c>
@@ -1184,7 +1226,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -1207,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1246,20 +1288,20 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>58</v>
       </c>
@@ -1288,7 +1330,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -1317,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -1346,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1357,7 +1399,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1380,33 +1422,33 @@
   </sheetPr>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
@@ -1462,10 +1504,28 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>496</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
       <c r="C2" t="s">
         <v>68</v>
       </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1440</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
       <c r="H2" s="11" t="s">
         <v>68</v>
       </c>
@@ -1500,14 +1560,28 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>497</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
       <c r="C3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1440</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="H3" s="11" t="s">
         <v>68</v>
       </c>
@@ -1542,14 +1616,28 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>939</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
       <c r="C4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1440</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="H4" s="11" t="s">
         <v>68</v>
       </c>
@@ -1584,14 +1672,28 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>973</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
       <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1440</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="H5" s="11" t="s">
         <v>68</v>
       </c>
@@ -1626,520 +1728,243 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C6" s="11" t="s">
-        <v>68</v>
-      </c>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>401768</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C7" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>401768</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C8" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>401768</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C9" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>401768</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C10" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>401768</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C11" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="16">
-        <v>401768</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C12" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="16">
-        <v>401768</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C13" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>401768</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C14" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="16">
-        <v>401768</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C15" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="11"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="16">
-        <v>401768</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="11"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="16">
-        <v>401768</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="16">
-        <v>401768</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C19" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2159,18 +1984,18 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -2193,112 +2018,112 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -2306,7 +2131,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -2331,19 +2156,19 @@
       <selection activeCell="E2" sqref="E2:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" style="11" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2369,15 +2194,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
     </row>
@@ -2399,14 +2224,14 @@
       <selection activeCell="D2" sqref="D2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
@@ -2417,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
     </row>
   </sheetData>
@@ -2437,21 +2262,21 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -2462,47 +2287,47 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
@@ -2524,21 +2349,21 @@
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="108.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="108.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>43</v>
       </c>
@@ -2570,7 +2395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
@@ -2579,7 +2404,7 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -2588,7 +2413,7 @@
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -2597,7 +2422,7 @@
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -2606,7 +2431,7 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D6" s="14"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -2615,26 +2440,26 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D7" s="14"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D8" s="14"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="11"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -2643,7 +2468,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -2652,11 +2477,11 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -2665,11 +2490,11 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -2678,11 +2503,11 @@
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -2691,11 +2516,11 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -2704,7 +2529,7 @@
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -2713,15 +2538,15 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.3">
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -2730,11 +2555,11 @@
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:10" x14ac:dyDescent="0.3">
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
     </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -2743,25 +2568,25 @@
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D27" s="14"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D28" s="14"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.3">
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.3">
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -2770,8 +2595,8 @@
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
     </row>
-    <row r="36" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2802,14 +2627,14 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
@@ -2820,602 +2645,602 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -3430,21 +3255,22 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
@@ -3460,9 +3286,11 @@
       <c r="E1" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>68</v>
       </c>
@@ -3475,25 +3303,45 @@
       <c r="E2" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
